--- a/rawdata/Timetable.xlsx
+++ b/rawdata/Timetable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holly\Desktop\rail_simulator\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E843880-FFB5-4614-A7B0-380F79CC51DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B513CC-D632-4CD0-8533-91709DD4091E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timetable" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>Stop</t>
   </si>
   <si>
-    <t>Planned stop</t>
-  </si>
-  <si>
     <t>Depart time</t>
   </si>
   <si>
@@ -854,6 +851,9 @@
   </si>
   <si>
     <t>21:55</t>
+  </si>
+  <si>
+    <t>Minimum Dwell</t>
   </si>
 </sst>
 </file>
@@ -1224,11 +1224,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="K337" sqref="K337"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="F343" sqref="F343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1247,10 +1250,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1258,22 +1261,22 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>220077</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1281,22 +1284,22 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>209617</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1304,22 +1307,22 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>197546</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1327,22 +1330,22 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>175418</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1350,22 +1353,22 @@
         <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>161739</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1373,22 +1376,22 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>161336.33499999999</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>120</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1396,22 +1399,22 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>144261</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1419,22 +1422,22 @@
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>126558</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1442,22 +1445,22 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>113056</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1465,22 +1468,22 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>84716</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11">
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1488,22 +1491,22 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>70006</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1511,22 +1514,22 @@
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>46269</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13">
         <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1534,22 +1537,22 @@
         <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>35003</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14">
         <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1557,22 +1560,22 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>28163</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15">
         <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1580,22 +1583,22 @@
         <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>22128</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1603,22 +1606,22 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>4426</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17">
         <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1626,22 +1629,22 @@
         <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>1600</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18">
         <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1649,22 +1652,22 @@
         <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1672,22 +1675,22 @@
         <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>220077</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1695,22 +1698,22 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>209617</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21">
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1718,22 +1721,22 @@
         <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>197546</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22">
         <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1741,22 +1744,22 @@
         <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>175418</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23">
         <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1764,22 +1767,22 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>161739</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1787,22 +1790,22 @@
         <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>161336.33499999999</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25">
         <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1810,22 +1813,22 @@
         <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>144261</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26">
         <v>120</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1833,22 +1836,22 @@
         <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>126558</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27">
         <v>120</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1856,22 +1859,22 @@
         <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>113056</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28">
         <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1879,22 +1882,22 @@
         <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>84716</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29">
         <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1902,22 +1905,22 @@
         <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>70006</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1925,22 +1928,22 @@
         <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>46269</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31">
         <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1948,22 +1951,22 @@
         <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>35003</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32">
         <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1971,22 +1974,22 @@
         <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>28163</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F33">
         <v>120</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1994,22 +1997,22 @@
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>22128</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2017,22 +2020,22 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>4426</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F35">
         <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2040,22 +2043,22 @@
         <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>1600</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F36">
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2063,22 +2066,22 @@
         <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2086,22 +2089,22 @@
         <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38">
         <v>220077</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F38">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2109,22 +2112,22 @@
         <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>209617</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F39">
         <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2132,22 +2135,22 @@
         <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>197546</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F40">
         <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2155,22 +2158,22 @@
         <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>175418</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F41">
         <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2178,22 +2181,22 @@
         <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>161739</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2201,22 +2204,22 @@
         <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>161336.33499999999</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F43">
         <v>120</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2224,22 +2227,22 @@
         <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <v>144261</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F44">
         <v>120</v>
       </c>
       <c r="G44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2247,22 +2250,22 @@
         <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45">
         <v>126558</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F45">
         <v>120</v>
       </c>
       <c r="G45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2270,22 +2273,22 @@
         <v>103</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46">
         <v>113056</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F46">
         <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2293,22 +2296,22 @@
         <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>84716</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F47">
         <v>90</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2316,22 +2319,22 @@
         <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48">
         <v>70006</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2339,22 +2342,22 @@
         <v>103</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49">
         <v>46269</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F49">
         <v>60</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2362,22 +2365,22 @@
         <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50">
         <v>35003</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F50">
         <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2385,22 +2388,22 @@
         <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51">
         <v>28163</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F51">
         <v>120</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2408,22 +2411,22 @@
         <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C52">
         <v>22128</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2431,22 +2434,22 @@
         <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <v>4426</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F53">
         <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2454,22 +2457,22 @@
         <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54">
         <v>1600</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F54">
         <v>60</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2477,22 +2480,22 @@
         <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F55">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2500,22 +2503,22 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56">
         <v>220077</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F56">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2523,22 +2526,22 @@
         <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57">
         <v>209617</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F57">
         <v>60</v>
       </c>
       <c r="G57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2546,22 +2549,22 @@
         <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C58">
         <v>197546</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F58">
         <v>60</v>
       </c>
       <c r="G58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2569,22 +2572,22 @@
         <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59">
         <v>175418</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F59">
         <v>60</v>
       </c>
       <c r="G59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2592,22 +2595,22 @@
         <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60">
         <v>161739</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2615,22 +2618,22 @@
         <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61">
         <v>161336.33499999999</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F61">
         <v>120</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2638,22 +2641,22 @@
         <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62">
         <v>144261</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F62">
         <v>120</v>
       </c>
       <c r="G62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2661,22 +2664,22 @@
         <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63">
         <v>126558</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F63">
         <v>120</v>
       </c>
       <c r="G63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2684,22 +2687,22 @@
         <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64">
         <v>113056</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F64">
         <v>60</v>
       </c>
       <c r="G64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2707,22 +2710,22 @@
         <v>104</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65">
         <v>84716</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F65">
         <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2730,22 +2733,22 @@
         <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66">
         <v>70006</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2753,22 +2756,22 @@
         <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C67">
         <v>46269</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F67">
         <v>60</v>
       </c>
       <c r="G67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2776,22 +2779,22 @@
         <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C68">
         <v>35003</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F68">
         <v>60</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2799,22 +2802,22 @@
         <v>104</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C69">
         <v>28163</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F69">
         <v>120</v>
       </c>
       <c r="G69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2822,22 +2825,22 @@
         <v>104</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C70">
         <v>22128</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2845,22 +2848,22 @@
         <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C71">
         <v>4426</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F71">
         <v>60</v>
       </c>
       <c r="G71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2868,22 +2871,22 @@
         <v>104</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C72">
         <v>1600</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F72">
         <v>60</v>
       </c>
       <c r="G72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2891,22 +2894,22 @@
         <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F73">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2914,22 +2917,22 @@
         <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74">
         <v>220077</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F74">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2937,22 +2940,22 @@
         <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75">
         <v>209617</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F75">
         <v>60</v>
       </c>
       <c r="G75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2960,22 +2963,22 @@
         <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76">
         <v>197546</v>
       </c>
       <c r="D76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F76">
         <v>60</v>
       </c>
       <c r="G76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2983,22 +2986,22 @@
         <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77">
         <v>175418</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F77">
         <v>60</v>
       </c>
       <c r="G77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3006,22 +3009,22 @@
         <v>105</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78">
         <v>161739</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -3029,22 +3032,22 @@
         <v>105</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79">
         <v>161336.33499999999</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F79">
         <v>120</v>
       </c>
       <c r="G79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3052,22 +3055,22 @@
         <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C80">
         <v>144261</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F80">
         <v>120</v>
       </c>
       <c r="G80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3075,22 +3078,22 @@
         <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81">
         <v>126558</v>
       </c>
       <c r="D81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F81">
         <v>120</v>
       </c>
       <c r="G81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -3098,22 +3101,22 @@
         <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82">
         <v>113056</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F82">
         <v>60</v>
       </c>
       <c r="G82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3121,22 +3124,22 @@
         <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83">
         <v>84716</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F83">
         <v>90</v>
       </c>
       <c r="G83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -3144,22 +3147,22 @@
         <v>105</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84">
         <v>70006</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -3167,22 +3170,22 @@
         <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C85">
         <v>46269</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F85">
         <v>60</v>
       </c>
       <c r="G85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3190,22 +3193,22 @@
         <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C86">
         <v>35003</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F86">
         <v>60</v>
       </c>
       <c r="G86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -3213,22 +3216,22 @@
         <v>105</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C87">
         <v>28163</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F87">
         <v>120</v>
       </c>
       <c r="G87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -3236,22 +3239,22 @@
         <v>105</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C88">
         <v>22128</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -3259,22 +3262,22 @@
         <v>105</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C89">
         <v>4426</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F89">
         <v>60</v>
       </c>
       <c r="G89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -3282,22 +3285,22 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C90">
         <v>1600</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F90">
         <v>60</v>
       </c>
       <c r="G90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3305,22 +3308,22 @@
         <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F91">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3328,22 +3331,22 @@
         <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92">
         <v>220077</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F92">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3351,22 +3354,22 @@
         <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93">
         <v>209617</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F93">
         <v>60</v>
       </c>
       <c r="G93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -3374,22 +3377,22 @@
         <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94">
         <v>197546</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F94">
         <v>60</v>
       </c>
       <c r="G94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -3397,22 +3400,22 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C95">
         <v>175418</v>
       </c>
       <c r="D95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F95">
         <v>60</v>
       </c>
       <c r="G95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -3420,22 +3423,22 @@
         <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96">
         <v>161739</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -3443,22 +3446,22 @@
         <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97">
         <v>161336.33499999999</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F97">
         <v>120</v>
       </c>
       <c r="G97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -3466,22 +3469,22 @@
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C98">
         <v>144261</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F98">
         <v>120</v>
       </c>
       <c r="G98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -3489,22 +3492,22 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C99">
         <v>126558</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F99">
         <v>120</v>
       </c>
       <c r="G99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -3512,22 +3515,22 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C100">
         <v>113056</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F100">
         <v>60</v>
       </c>
       <c r="G100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -3535,22 +3538,22 @@
         <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C101">
         <v>84716</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F101">
         <v>90</v>
       </c>
       <c r="G101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -3558,22 +3561,22 @@
         <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C102">
         <v>70006</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -3581,22 +3584,22 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C103">
         <v>46269</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F103">
         <v>60</v>
       </c>
       <c r="G103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -3604,22 +3607,22 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C104">
         <v>35003</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F104">
         <v>60</v>
       </c>
       <c r="G104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -3627,22 +3630,22 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C105">
         <v>28163</v>
       </c>
       <c r="D105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F105">
         <v>120</v>
       </c>
       <c r="G105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -3650,22 +3653,22 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C106">
         <v>22128</v>
       </c>
       <c r="D106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -3673,22 +3676,22 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C107">
         <v>4426</v>
       </c>
       <c r="D107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F107">
         <v>60</v>
       </c>
       <c r="G107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -3696,22 +3699,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C108">
         <v>1600</v>
       </c>
       <c r="D108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F108">
         <v>60</v>
       </c>
       <c r="G108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -3719,22 +3722,22 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F109">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -3742,22 +3745,22 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110">
         <v>220077</v>
       </c>
       <c r="D110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F110">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -3765,22 +3768,22 @@
         <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111">
         <v>209617</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F111">
         <v>60</v>
       </c>
       <c r="G111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -3788,22 +3791,22 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C112">
         <v>197546</v>
       </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F112">
         <v>60</v>
       </c>
       <c r="G112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -3811,22 +3814,22 @@
         <v>107</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C113">
         <v>175418</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F113">
         <v>60</v>
       </c>
       <c r="G113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -3834,22 +3837,22 @@
         <v>107</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C114">
         <v>161739</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -3857,22 +3860,22 @@
         <v>107</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115">
         <v>161336.33499999999</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F115">
         <v>120</v>
       </c>
       <c r="G115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -3880,22 +3883,22 @@
         <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C116">
         <v>144261</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F116">
         <v>120</v>
       </c>
       <c r="G116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -3903,22 +3906,22 @@
         <v>107</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117">
         <v>126558</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F117">
         <v>120</v>
       </c>
       <c r="G117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -3926,22 +3929,22 @@
         <v>107</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C118">
         <v>113056</v>
       </c>
       <c r="D118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F118">
         <v>60</v>
       </c>
       <c r="G118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -3949,22 +3952,22 @@
         <v>107</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C119">
         <v>84716</v>
       </c>
       <c r="D119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F119">
         <v>90</v>
       </c>
       <c r="G119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -3972,22 +3975,22 @@
         <v>107</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C120">
         <v>70006</v>
       </c>
       <c r="D120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -3995,22 +3998,22 @@
         <v>107</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C121">
         <v>46269</v>
       </c>
       <c r="D121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F121">
         <v>60</v>
       </c>
       <c r="G121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -4018,22 +4021,22 @@
         <v>107</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C122">
         <v>35003</v>
       </c>
       <c r="D122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F122">
         <v>60</v>
       </c>
       <c r="G122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -4041,22 +4044,22 @@
         <v>107</v>
       </c>
       <c r="B123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C123">
         <v>28163</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F123">
         <v>120</v>
       </c>
       <c r="G123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -4064,22 +4067,22 @@
         <v>107</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C124">
         <v>22128</v>
       </c>
       <c r="D124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -4087,22 +4090,22 @@
         <v>107</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C125">
         <v>4426</v>
       </c>
       <c r="D125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F125">
         <v>60</v>
       </c>
       <c r="G125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -4110,22 +4113,22 @@
         <v>107</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C126">
         <v>1600</v>
       </c>
       <c r="D126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F126">
         <v>60</v>
       </c>
       <c r="G126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -4133,22 +4136,22 @@
         <v>107</v>
       </c>
       <c r="B127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F127">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -4156,22 +4159,22 @@
         <v>108</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128">
         <v>220077</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F128">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -4179,22 +4182,22 @@
         <v>108</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129">
         <v>209617</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F129">
         <v>60</v>
       </c>
       <c r="G129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -4202,22 +4205,22 @@
         <v>108</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C130">
         <v>197546</v>
       </c>
       <c r="D130" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F130">
         <v>60</v>
       </c>
       <c r="G130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -4225,22 +4228,22 @@
         <v>108</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C131">
         <v>175418</v>
       </c>
       <c r="D131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F131">
         <v>60</v>
       </c>
       <c r="G131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -4248,22 +4251,22 @@
         <v>108</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C132">
         <v>161739</v>
       </c>
       <c r="D132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -4271,22 +4274,22 @@
         <v>108</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133">
         <v>161336.33499999999</v>
       </c>
       <c r="D133" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F133">
         <v>120</v>
       </c>
       <c r="G133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -4294,22 +4297,22 @@
         <v>108</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C134">
         <v>144261</v>
       </c>
       <c r="D134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F134">
         <v>120</v>
       </c>
       <c r="G134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -4317,22 +4320,22 @@
         <v>108</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C135">
         <v>126558</v>
       </c>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F135">
         <v>120</v>
       </c>
       <c r="G135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -4340,22 +4343,22 @@
         <v>108</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C136">
         <v>113056</v>
       </c>
       <c r="D136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F136">
         <v>60</v>
       </c>
       <c r="G136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -4363,22 +4366,22 @@
         <v>108</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C137">
         <v>84716</v>
       </c>
       <c r="D137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F137">
         <v>90</v>
       </c>
       <c r="G137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -4386,22 +4389,22 @@
         <v>108</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C138">
         <v>70006</v>
       </c>
       <c r="D138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -4409,22 +4412,22 @@
         <v>108</v>
       </c>
       <c r="B139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C139">
         <v>46269</v>
       </c>
       <c r="D139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F139">
         <v>60</v>
       </c>
       <c r="G139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -4432,22 +4435,22 @@
         <v>108</v>
       </c>
       <c r="B140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C140">
         <v>35003</v>
       </c>
       <c r="D140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F140">
         <v>60</v>
       </c>
       <c r="G140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -4455,22 +4458,22 @@
         <v>108</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C141">
         <v>28163</v>
       </c>
       <c r="D141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F141">
         <v>120</v>
       </c>
       <c r="G141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -4478,22 +4481,22 @@
         <v>108</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C142">
         <v>22128</v>
       </c>
       <c r="D142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -4501,22 +4504,22 @@
         <v>108</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C143">
         <v>4426</v>
       </c>
       <c r="D143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F143">
         <v>60</v>
       </c>
       <c r="G143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -4524,22 +4527,22 @@
         <v>108</v>
       </c>
       <c r="B144" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C144">
         <v>1600</v>
       </c>
       <c r="D144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F144">
         <v>60</v>
       </c>
       <c r="G144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -4547,22 +4550,22 @@
         <v>108</v>
       </c>
       <c r="B145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C145">
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F145">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -4570,22 +4573,22 @@
         <v>121</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C146">
         <v>126558</v>
       </c>
       <c r="D146" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E146" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F146">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -4593,22 +4596,22 @@
         <v>121</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C147">
         <v>113056</v>
       </c>
       <c r="D147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F147">
         <v>60</v>
       </c>
       <c r="G147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -4616,22 +4619,22 @@
         <v>121</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C148">
         <v>84716</v>
       </c>
       <c r="D148" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E148" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F148">
         <v>90</v>
       </c>
       <c r="G148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -4639,22 +4642,22 @@
         <v>121</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C149">
         <v>70006</v>
       </c>
       <c r="D149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -4662,22 +4665,22 @@
         <v>121</v>
       </c>
       <c r="B150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C150">
         <v>46269</v>
       </c>
       <c r="D150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F150">
         <v>60</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -4685,22 +4688,22 @@
         <v>121</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C151">
         <v>35003</v>
       </c>
       <c r="D151" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E151" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F151">
         <v>60</v>
       </c>
       <c r="G151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -4708,22 +4711,22 @@
         <v>121</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C152">
         <v>28163</v>
       </c>
       <c r="D152" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E152" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F152">
         <v>120</v>
       </c>
       <c r="G152" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -4731,22 +4734,22 @@
         <v>121</v>
       </c>
       <c r="B153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C153">
         <v>22128</v>
       </c>
       <c r="D153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F153">
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -4754,22 +4757,22 @@
         <v>121</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C154">
         <v>4426</v>
       </c>
       <c r="D154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F154">
         <v>60</v>
       </c>
       <c r="G154" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -4777,22 +4780,22 @@
         <v>121</v>
       </c>
       <c r="B155" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C155">
         <v>1600</v>
       </c>
       <c r="D155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F155">
         <v>60</v>
       </c>
       <c r="G155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -4800,22 +4803,22 @@
         <v>121</v>
       </c>
       <c r="B156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C156">
         <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F156">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="G156" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -4823,22 +4826,22 @@
         <v>122</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C157">
         <v>126558</v>
       </c>
       <c r="D157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E157" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F157">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="G157" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -4846,22 +4849,22 @@
         <v>122</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C158">
         <v>113056</v>
       </c>
       <c r="D158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F158">
         <v>60</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -4869,22 +4872,22 @@
         <v>122</v>
       </c>
       <c r="B159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C159">
         <v>84716</v>
       </c>
       <c r="D159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F159">
         <v>90</v>
       </c>
       <c r="G159" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -4892,22 +4895,22 @@
         <v>122</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C160">
         <v>70006</v>
       </c>
       <c r="D160" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -4915,22 +4918,22 @@
         <v>122</v>
       </c>
       <c r="B161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C161">
         <v>46269</v>
       </c>
       <c r="D161" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E161" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F161">
         <v>60</v>
       </c>
       <c r="G161" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -4938,22 +4941,22 @@
         <v>122</v>
       </c>
       <c r="B162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C162">
         <v>35003</v>
       </c>
       <c r="D162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F162">
         <v>60</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -4961,22 +4964,22 @@
         <v>122</v>
       </c>
       <c r="B163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C163">
         <v>28163</v>
       </c>
       <c r="D163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F163">
         <v>120</v>
       </c>
       <c r="G163" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -4984,22 +4987,22 @@
         <v>122</v>
       </c>
       <c r="B164" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C164">
         <v>22128</v>
       </c>
       <c r="D164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F164">
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -5007,22 +5010,22 @@
         <v>122</v>
       </c>
       <c r="B165" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C165">
         <v>4426</v>
       </c>
       <c r="D165" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E165" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F165">
         <v>60</v>
       </c>
       <c r="G165" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -5030,22 +5033,22 @@
         <v>122</v>
       </c>
       <c r="B166" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C166">
         <v>1600</v>
       </c>
       <c r="D166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F166">
         <v>60</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -5053,22 +5056,22 @@
         <v>122</v>
       </c>
       <c r="B167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C167">
         <v>0</v>
       </c>
       <c r="D167" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F167">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -5076,22 +5079,22 @@
         <v>201</v>
       </c>
       <c r="B168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C168">
         <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E168" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F168">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -5099,22 +5102,22 @@
         <v>201</v>
       </c>
       <c r="B169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C169">
         <v>1600</v>
       </c>
       <c r="D169" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E169" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F169">
         <v>60</v>
       </c>
       <c r="G169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -5122,22 +5125,22 @@
         <v>201</v>
       </c>
       <c r="B170" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C170">
         <v>4426</v>
       </c>
       <c r="D170" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E170" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F170">
         <v>60</v>
       </c>
       <c r="G170" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -5145,22 +5148,22 @@
         <v>201</v>
       </c>
       <c r="B171" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C171">
         <v>22128</v>
       </c>
       <c r="D171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E171" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -5168,22 +5171,22 @@
         <v>201</v>
       </c>
       <c r="B172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C172">
         <v>28163</v>
       </c>
       <c r="D172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F172">
         <v>120</v>
       </c>
       <c r="G172" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -5191,22 +5194,22 @@
         <v>201</v>
       </c>
       <c r="B173" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C173">
         <v>35003</v>
       </c>
       <c r="D173" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E173" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F173">
         <v>60</v>
       </c>
       <c r="G173" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -5214,22 +5217,22 @@
         <v>201</v>
       </c>
       <c r="B174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C174">
         <v>46269</v>
       </c>
       <c r="D174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F174">
         <v>60</v>
       </c>
       <c r="G174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -5237,22 +5240,22 @@
         <v>201</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C175">
         <v>70006</v>
       </c>
       <c r="D175" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -5260,22 +5263,22 @@
         <v>201</v>
       </c>
       <c r="B176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C176">
         <v>84716</v>
       </c>
       <c r="D176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F176">
         <v>120</v>
       </c>
       <c r="G176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -5283,22 +5286,22 @@
         <v>201</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C177">
         <v>113056</v>
       </c>
       <c r="D177" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E177" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F177">
         <v>60</v>
       </c>
       <c r="G177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -5306,22 +5309,22 @@
         <v>201</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C178">
         <v>126558</v>
       </c>
       <c r="D178" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E178" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F178">
         <v>120</v>
       </c>
       <c r="G178" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -5329,22 +5332,22 @@
         <v>201</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C179">
         <v>144261</v>
       </c>
       <c r="D179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F179">
         <v>120</v>
       </c>
       <c r="G179" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -5352,22 +5355,22 @@
         <v>201</v>
       </c>
       <c r="B180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C180">
         <v>161336.33499999999</v>
       </c>
       <c r="D180" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F180">
         <v>120</v>
       </c>
       <c r="G180" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -5375,22 +5378,22 @@
         <v>201</v>
       </c>
       <c r="B181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C181">
         <v>161739</v>
       </c>
       <c r="D181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E181" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -5398,22 +5401,22 @@
         <v>201</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C182">
         <v>175418</v>
       </c>
       <c r="D182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F182">
         <v>60</v>
       </c>
       <c r="G182" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -5421,22 +5424,22 @@
         <v>201</v>
       </c>
       <c r="B183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C183">
         <v>197546</v>
       </c>
       <c r="D183" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F183">
         <v>60</v>
       </c>
       <c r="G183" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -5444,22 +5447,22 @@
         <v>201</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184">
         <v>209617</v>
       </c>
       <c r="D184" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F184">
         <v>60</v>
       </c>
       <c r="G184" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -5467,22 +5470,22 @@
         <v>201</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185">
         <v>220077</v>
       </c>
       <c r="D185" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E185" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F185">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -5490,22 +5493,22 @@
         <v>202</v>
       </c>
       <c r="B186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C186">
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E186" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F186">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -5513,22 +5516,22 @@
         <v>202</v>
       </c>
       <c r="B187" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C187">
         <v>1600</v>
       </c>
       <c r="D187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F187">
         <v>60</v>
       </c>
       <c r="G187" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -5536,22 +5539,22 @@
         <v>202</v>
       </c>
       <c r="B188" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C188">
         <v>4426</v>
       </c>
       <c r="D188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F188">
         <v>60</v>
       </c>
       <c r="G188" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -5559,22 +5562,22 @@
         <v>202</v>
       </c>
       <c r="B189" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C189">
         <v>22128</v>
       </c>
       <c r="D189" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -5582,22 +5585,22 @@
         <v>202</v>
       </c>
       <c r="B190" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C190">
         <v>28163</v>
       </c>
       <c r="D190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F190">
         <v>120</v>
       </c>
       <c r="G190" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -5605,22 +5608,22 @@
         <v>202</v>
       </c>
       <c r="B191" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C191">
         <v>35003</v>
       </c>
       <c r="D191" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E191" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F191">
         <v>60</v>
       </c>
       <c r="G191" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -5628,22 +5631,22 @@
         <v>202</v>
       </c>
       <c r="B192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C192">
         <v>46269</v>
       </c>
       <c r="D192" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E192" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F192">
         <v>60</v>
       </c>
       <c r="G192" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -5651,22 +5654,22 @@
         <v>202</v>
       </c>
       <c r="B193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C193">
         <v>70006</v>
       </c>
       <c r="D193" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -5674,22 +5677,22 @@
         <v>202</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C194">
         <v>84716</v>
       </c>
       <c r="D194" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E194" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F194">
         <v>120</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -5697,22 +5700,22 @@
         <v>202</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C195">
         <v>113056</v>
       </c>
       <c r="D195" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E195" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F195">
         <v>60</v>
       </c>
       <c r="G195" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -5720,22 +5723,22 @@
         <v>202</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C196">
         <v>126558</v>
       </c>
       <c r="D196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F196">
         <v>120</v>
       </c>
       <c r="G196" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -5743,22 +5746,22 @@
         <v>202</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C197">
         <v>144261</v>
       </c>
       <c r="D197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F197">
         <v>120</v>
       </c>
       <c r="G197" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -5766,22 +5769,22 @@
         <v>202</v>
       </c>
       <c r="B198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C198">
         <v>161336.33499999999</v>
       </c>
       <c r="D198" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F198">
         <v>120</v>
       </c>
       <c r="G198" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -5789,22 +5792,22 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C199">
         <v>161739</v>
       </c>
       <c r="D199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E199" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -5812,22 +5815,22 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C200">
         <v>175418</v>
       </c>
       <c r="D200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F200">
         <v>60</v>
       </c>
       <c r="G200" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -5835,22 +5838,22 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C201">
         <v>197546</v>
       </c>
       <c r="D201" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E201" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F201">
         <v>60</v>
       </c>
       <c r="G201" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -5858,22 +5861,22 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202">
         <v>209617</v>
       </c>
       <c r="D202" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E202" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F202">
         <v>60</v>
       </c>
       <c r="G202" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -5881,22 +5884,22 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203">
         <v>220077</v>
       </c>
       <c r="D203" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E203" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F203">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -5904,22 +5907,22 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C204">
         <v>0</v>
       </c>
       <c r="D204" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E204" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F204">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -5927,22 +5930,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C205">
         <v>1600</v>
       </c>
       <c r="D205" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E205" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F205">
         <v>60</v>
       </c>
       <c r="G205" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -5950,22 +5953,22 @@
         <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C206">
         <v>4426</v>
       </c>
       <c r="D206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F206">
         <v>60</v>
       </c>
       <c r="G206" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -5973,22 +5976,22 @@
         <v>203</v>
       </c>
       <c r="B207" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C207">
         <v>22128</v>
       </c>
       <c r="D207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -5996,22 +5999,22 @@
         <v>203</v>
       </c>
       <c r="B208" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C208">
         <v>28163</v>
       </c>
       <c r="D208" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E208" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F208">
         <v>120</v>
       </c>
       <c r="G208" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -6019,22 +6022,22 @@
         <v>203</v>
       </c>
       <c r="B209" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C209">
         <v>35003</v>
       </c>
       <c r="D209" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E209" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F209">
         <v>60</v>
       </c>
       <c r="G209" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -6042,22 +6045,22 @@
         <v>203</v>
       </c>
       <c r="B210" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C210">
         <v>46269</v>
       </c>
       <c r="D210" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E210" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F210">
         <v>60</v>
       </c>
       <c r="G210" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -6065,22 +6068,22 @@
         <v>203</v>
       </c>
       <c r="B211" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C211">
         <v>70006</v>
       </c>
       <c r="D211" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F211">
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -6088,22 +6091,22 @@
         <v>203</v>
       </c>
       <c r="B212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C212">
         <v>84716</v>
       </c>
       <c r="D212" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E212" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F212">
         <v>120</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -6111,22 +6114,22 @@
         <v>203</v>
       </c>
       <c r="B213" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C213">
         <v>113056</v>
       </c>
       <c r="D213" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E213" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F213">
         <v>60</v>
       </c>
       <c r="G213" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -6134,22 +6137,22 @@
         <v>203</v>
       </c>
       <c r="B214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C214">
         <v>126558</v>
       </c>
       <c r="D214" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E214" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F214">
         <v>120</v>
       </c>
       <c r="G214" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -6157,22 +6160,22 @@
         <v>203</v>
       </c>
       <c r="B215" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C215">
         <v>144261</v>
       </c>
       <c r="D215" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E215" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F215">
         <v>120</v>
       </c>
       <c r="G215" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -6180,22 +6183,22 @@
         <v>203</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C216">
         <v>161336.33499999999</v>
       </c>
       <c r="D216" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E216" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F216">
         <v>120</v>
       </c>
       <c r="G216" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -6203,22 +6206,22 @@
         <v>203</v>
       </c>
       <c r="B217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C217">
         <v>161739</v>
       </c>
       <c r="D217" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F217">
         <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -6226,22 +6229,22 @@
         <v>203</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C218">
         <v>175418</v>
       </c>
       <c r="D218" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E218" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F218">
         <v>60</v>
       </c>
       <c r="G218" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -6249,22 +6252,22 @@
         <v>203</v>
       </c>
       <c r="B219" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C219">
         <v>197546</v>
       </c>
       <c r="D219" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E219" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F219">
         <v>60</v>
       </c>
       <c r="G219" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -6272,22 +6275,22 @@
         <v>203</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220">
         <v>209617</v>
       </c>
       <c r="D220" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E220" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F220">
         <v>60</v>
       </c>
       <c r="G220" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -6295,22 +6298,22 @@
         <v>203</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221">
         <v>220077</v>
       </c>
       <c r="D221" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E221" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F221">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -6318,22 +6321,22 @@
         <v>204</v>
       </c>
       <c r="B222" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C222">
         <v>0</v>
       </c>
       <c r="D222" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E222" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F222">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -6341,22 +6344,22 @@
         <v>204</v>
       </c>
       <c r="B223" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C223">
         <v>1600</v>
       </c>
       <c r="D223" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E223" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F223">
         <v>60</v>
       </c>
       <c r="G223" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -6364,22 +6367,22 @@
         <v>204</v>
       </c>
       <c r="B224" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C224">
         <v>4426</v>
       </c>
       <c r="D224" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E224" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F224">
         <v>60</v>
       </c>
       <c r="G224" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -6387,22 +6390,22 @@
         <v>204</v>
       </c>
       <c r="B225" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C225">
         <v>22128</v>
       </c>
       <c r="D225" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E225" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F225">
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -6410,22 +6413,22 @@
         <v>204</v>
       </c>
       <c r="B226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C226">
         <v>28163</v>
       </c>
       <c r="D226" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E226" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F226">
         <v>120</v>
       </c>
       <c r="G226" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -6433,22 +6436,22 @@
         <v>204</v>
       </c>
       <c r="B227" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C227">
         <v>35003</v>
       </c>
       <c r="D227" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E227" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F227">
         <v>60</v>
       </c>
       <c r="G227" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -6456,22 +6459,22 @@
         <v>204</v>
       </c>
       <c r="B228" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C228">
         <v>46269</v>
       </c>
       <c r="D228" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E228" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F228">
         <v>60</v>
       </c>
       <c r="G228" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -6479,22 +6482,22 @@
         <v>204</v>
       </c>
       <c r="B229" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C229">
         <v>70006</v>
       </c>
       <c r="D229" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E229" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F229">
         <v>0</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -6502,22 +6505,22 @@
         <v>204</v>
       </c>
       <c r="B230" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C230">
         <v>84716</v>
       </c>
       <c r="D230" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E230" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F230">
         <v>120</v>
       </c>
       <c r="G230" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -6525,22 +6528,22 @@
         <v>204</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C231">
         <v>113056</v>
       </c>
       <c r="D231" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E231" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F231">
         <v>60</v>
       </c>
       <c r="G231" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -6548,22 +6551,22 @@
         <v>204</v>
       </c>
       <c r="B232" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C232">
         <v>126558</v>
       </c>
       <c r="D232" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E232" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F232">
         <v>120</v>
       </c>
       <c r="G232" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -6571,22 +6574,22 @@
         <v>204</v>
       </c>
       <c r="B233" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C233">
         <v>144261</v>
       </c>
       <c r="D233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F233">
         <v>120</v>
       </c>
       <c r="G233" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -6594,22 +6597,22 @@
         <v>204</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C234">
         <v>161336.33499999999</v>
       </c>
       <c r="D234" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E234" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F234">
         <v>120</v>
       </c>
       <c r="G234" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -6617,22 +6620,22 @@
         <v>204</v>
       </c>
       <c r="B235" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C235">
         <v>161739</v>
       </c>
       <c r="D235" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E235" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F235">
         <v>0</v>
       </c>
       <c r="G235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -6640,22 +6643,22 @@
         <v>204</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C236">
         <v>175418</v>
       </c>
       <c r="D236" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E236" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F236">
         <v>60</v>
       </c>
       <c r="G236" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -6663,22 +6666,22 @@
         <v>204</v>
       </c>
       <c r="B237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C237">
         <v>197546</v>
       </c>
       <c r="D237" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E237" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F237">
         <v>60</v>
       </c>
       <c r="G237" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -6686,22 +6689,22 @@
         <v>204</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238">
         <v>209617</v>
       </c>
       <c r="D238" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E238" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F238">
         <v>60</v>
       </c>
       <c r="G238" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -6709,22 +6712,22 @@
         <v>204</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239">
         <v>220077</v>
       </c>
       <c r="D239" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E239" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F239">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -6732,22 +6735,22 @@
         <v>205</v>
       </c>
       <c r="B240" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C240">
         <v>0</v>
       </c>
       <c r="D240" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E240" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F240">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G240" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -6755,22 +6758,22 @@
         <v>205</v>
       </c>
       <c r="B241" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C241">
         <v>1600</v>
       </c>
       <c r="D241" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E241" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F241">
         <v>60</v>
       </c>
       <c r="G241" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -6778,22 +6781,22 @@
         <v>205</v>
       </c>
       <c r="B242" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C242">
         <v>4426</v>
       </c>
       <c r="D242" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E242" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F242">
         <v>60</v>
       </c>
       <c r="G242" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -6801,22 +6804,22 @@
         <v>205</v>
       </c>
       <c r="B243" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C243">
         <v>22128</v>
       </c>
       <c r="D243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E243" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F243">
         <v>0</v>
       </c>
       <c r="G243" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -6824,22 +6827,22 @@
         <v>205</v>
       </c>
       <c r="B244" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C244">
         <v>28163</v>
       </c>
       <c r="D244" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E244" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F244">
         <v>120</v>
       </c>
       <c r="G244" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -6847,22 +6850,22 @@
         <v>205</v>
       </c>
       <c r="B245" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C245">
         <v>35003</v>
       </c>
       <c r="D245" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E245" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F245">
         <v>60</v>
       </c>
       <c r="G245" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -6870,22 +6873,22 @@
         <v>205</v>
       </c>
       <c r="B246" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C246">
         <v>46269</v>
       </c>
       <c r="D246" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E246" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F246">
         <v>60</v>
       </c>
       <c r="G246" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -6893,22 +6896,22 @@
         <v>205</v>
       </c>
       <c r="B247" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C247">
         <v>70006</v>
       </c>
       <c r="D247" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E247" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F247">
         <v>0</v>
       </c>
       <c r="G247" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -6916,22 +6919,22 @@
         <v>205</v>
       </c>
       <c r="B248" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C248">
         <v>84716</v>
       </c>
       <c r="D248" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E248" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F248">
         <v>120</v>
       </c>
       <c r="G248" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -6939,22 +6942,22 @@
         <v>205</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C249">
         <v>113056</v>
       </c>
       <c r="D249" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E249" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F249">
         <v>60</v>
       </c>
       <c r="G249" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
@@ -6962,22 +6965,22 @@
         <v>205</v>
       </c>
       <c r="B250" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C250">
         <v>126558</v>
       </c>
       <c r="D250" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E250" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F250">
         <v>120</v>
       </c>
       <c r="G250" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -6985,22 +6988,22 @@
         <v>205</v>
       </c>
       <c r="B251" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C251">
         <v>144261</v>
       </c>
       <c r="D251" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E251" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F251">
         <v>120</v>
       </c>
       <c r="G251" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -7008,22 +7011,22 @@
         <v>205</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C252">
         <v>161336.33499999999</v>
       </c>
       <c r="D252" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E252" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F252">
         <v>120</v>
       </c>
       <c r="G252" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -7031,22 +7034,22 @@
         <v>205</v>
       </c>
       <c r="B253" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C253">
         <v>161739</v>
       </c>
       <c r="D253" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E253" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F253">
         <v>0</v>
       </c>
       <c r="G253" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -7054,22 +7057,22 @@
         <v>205</v>
       </c>
       <c r="B254" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C254">
         <v>175418</v>
       </c>
       <c r="D254" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E254" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F254">
         <v>60</v>
       </c>
       <c r="G254" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -7077,22 +7080,22 @@
         <v>205</v>
       </c>
       <c r="B255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C255">
         <v>197546</v>
       </c>
       <c r="D255" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E255" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F255">
         <v>60</v>
       </c>
       <c r="G255" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -7100,22 +7103,22 @@
         <v>205</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256">
         <v>209617</v>
       </c>
       <c r="D256" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E256" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F256">
         <v>60</v>
       </c>
       <c r="G256" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -7123,22 +7126,22 @@
         <v>205</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257">
         <v>220077</v>
       </c>
       <c r="D257" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E257" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F257">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -7146,22 +7149,22 @@
         <v>206</v>
       </c>
       <c r="B258" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C258">
         <v>0</v>
       </c>
       <c r="D258" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E258" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F258">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G258" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -7169,22 +7172,22 @@
         <v>206</v>
       </c>
       <c r="B259" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C259">
         <v>1600</v>
       </c>
       <c r="D259" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E259" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F259">
         <v>60</v>
       </c>
       <c r="G259" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -7192,22 +7195,22 @@
         <v>206</v>
       </c>
       <c r="B260" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C260">
         <v>4426</v>
       </c>
       <c r="D260" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E260" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F260">
         <v>60</v>
       </c>
       <c r="G260" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -7215,22 +7218,22 @@
         <v>206</v>
       </c>
       <c r="B261" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C261">
         <v>22128</v>
       </c>
       <c r="D261" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E261" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F261">
         <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -7238,22 +7241,22 @@
         <v>206</v>
       </c>
       <c r="B262" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C262">
         <v>28163</v>
       </c>
       <c r="D262" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E262" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F262">
         <v>120</v>
       </c>
       <c r="G262" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -7261,22 +7264,22 @@
         <v>206</v>
       </c>
       <c r="B263" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C263">
         <v>35003</v>
       </c>
       <c r="D263" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E263" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F263">
         <v>60</v>
       </c>
       <c r="G263" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -7284,22 +7287,22 @@
         <v>206</v>
       </c>
       <c r="B264" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C264">
         <v>46269</v>
       </c>
       <c r="D264" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E264" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F264">
         <v>60</v>
       </c>
       <c r="G264" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -7307,22 +7310,22 @@
         <v>206</v>
       </c>
       <c r="B265" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C265">
         <v>70006</v>
       </c>
       <c r="D265" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E265" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F265">
         <v>0</v>
       </c>
       <c r="G265" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -7330,22 +7333,22 @@
         <v>206</v>
       </c>
       <c r="B266" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C266">
         <v>84716</v>
       </c>
       <c r="D266" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E266" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F266">
         <v>120</v>
       </c>
       <c r="G266" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -7353,22 +7356,22 @@
         <v>206</v>
       </c>
       <c r="B267" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C267">
         <v>113056</v>
       </c>
       <c r="D267" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E267" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F267">
         <v>60</v>
       </c>
       <c r="G267" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
@@ -7376,22 +7379,22 @@
         <v>206</v>
       </c>
       <c r="B268" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C268">
         <v>126558</v>
       </c>
       <c r="D268" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E268" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F268">
         <v>120</v>
       </c>
       <c r="G268" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -7399,22 +7402,22 @@
         <v>206</v>
       </c>
       <c r="B269" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C269">
         <v>144261</v>
       </c>
       <c r="D269" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E269" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F269">
         <v>120</v>
       </c>
       <c r="G269" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -7422,22 +7425,22 @@
         <v>206</v>
       </c>
       <c r="B270" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C270">
         <v>161336.33499999999</v>
       </c>
       <c r="D270" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E270" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F270">
         <v>120</v>
       </c>
       <c r="G270" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -7445,22 +7448,22 @@
         <v>206</v>
       </c>
       <c r="B271" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C271">
         <v>161739</v>
       </c>
       <c r="D271" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E271" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F271">
         <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -7468,22 +7471,22 @@
         <v>206</v>
       </c>
       <c r="B272" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C272">
         <v>175418</v>
       </c>
       <c r="D272" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E272" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F272">
         <v>60</v>
       </c>
       <c r="G272" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -7491,22 +7494,22 @@
         <v>206</v>
       </c>
       <c r="B273" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C273">
         <v>197546</v>
       </c>
       <c r="D273" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E273" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F273">
         <v>60</v>
       </c>
       <c r="G273" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -7514,22 +7517,22 @@
         <v>206</v>
       </c>
       <c r="B274" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C274">
         <v>209617</v>
       </c>
       <c r="D274" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E274" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F274">
         <v>60</v>
       </c>
       <c r="G274" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -7537,22 +7540,22 @@
         <v>206</v>
       </c>
       <c r="B275" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C275">
         <v>220077</v>
       </c>
       <c r="D275" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E275" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F275">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G275" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -7560,22 +7563,22 @@
         <v>207</v>
       </c>
       <c r="B276" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C276">
         <v>0</v>
       </c>
       <c r="D276" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E276" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F276">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G276" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -7583,22 +7586,22 @@
         <v>207</v>
       </c>
       <c r="B277" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C277">
         <v>1600</v>
       </c>
       <c r="D277" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E277" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F277">
         <v>60</v>
       </c>
       <c r="G277" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -7606,22 +7609,22 @@
         <v>207</v>
       </c>
       <c r="B278" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C278">
         <v>4426</v>
       </c>
       <c r="D278" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E278" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F278">
         <v>60</v>
       </c>
       <c r="G278" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
@@ -7629,22 +7632,22 @@
         <v>207</v>
       </c>
       <c r="B279" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C279">
         <v>22128</v>
       </c>
       <c r="D279" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E279" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F279">
         <v>0</v>
       </c>
       <c r="G279" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
@@ -7652,22 +7655,22 @@
         <v>207</v>
       </c>
       <c r="B280" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C280">
         <v>28163</v>
       </c>
       <c r="D280" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E280" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F280">
         <v>120</v>
       </c>
       <c r="G280" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
@@ -7675,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B281" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C281">
         <v>35003</v>
       </c>
       <c r="D281" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E281" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F281">
         <v>60</v>
       </c>
       <c r="G281" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -7698,22 +7701,22 @@
         <v>207</v>
       </c>
       <c r="B282" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C282">
         <v>46269</v>
       </c>
       <c r="D282" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E282" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F282">
         <v>60</v>
       </c>
       <c r="G282" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -7721,22 +7724,22 @@
         <v>207</v>
       </c>
       <c r="B283" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C283">
         <v>70006</v>
       </c>
       <c r="D283" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E283" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F283">
         <v>0</v>
       </c>
       <c r="G283" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -7744,22 +7747,22 @@
         <v>207</v>
       </c>
       <c r="B284" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C284">
         <v>84716</v>
       </c>
       <c r="D284" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E284" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F284">
         <v>120</v>
       </c>
       <c r="G284" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
@@ -7767,22 +7770,22 @@
         <v>207</v>
       </c>
       <c r="B285" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C285">
         <v>113056</v>
       </c>
       <c r="D285" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E285" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F285">
         <v>60</v>
       </c>
       <c r="G285" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
@@ -7790,22 +7793,22 @@
         <v>207</v>
       </c>
       <c r="B286" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C286">
         <v>126558</v>
       </c>
       <c r="D286" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E286" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F286">
         <v>120</v>
       </c>
       <c r="G286" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
@@ -7813,22 +7816,22 @@
         <v>207</v>
       </c>
       <c r="B287" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C287">
         <v>144261</v>
       </c>
       <c r="D287" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E287" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F287">
         <v>120</v>
       </c>
       <c r="G287" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
@@ -7836,22 +7839,22 @@
         <v>207</v>
       </c>
       <c r="B288" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C288">
         <v>161336.33499999999</v>
       </c>
       <c r="D288" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E288" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F288">
         <v>120</v>
       </c>
       <c r="G288" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
@@ -7859,16 +7862,16 @@
         <v>207</v>
       </c>
       <c r="B289" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C289">
         <v>161739</v>
       </c>
       <c r="D289" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E289" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -7879,22 +7882,22 @@
         <v>207</v>
       </c>
       <c r="B290" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C290">
         <v>175418</v>
       </c>
       <c r="D290" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E290" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F290">
         <v>60</v>
       </c>
       <c r="G290" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
@@ -7902,22 +7905,22 @@
         <v>207</v>
       </c>
       <c r="B291" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C291">
         <v>197546</v>
       </c>
       <c r="D291" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E291" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F291">
         <v>60</v>
       </c>
       <c r="G291" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
@@ -7925,22 +7928,22 @@
         <v>207</v>
       </c>
       <c r="B292" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C292">
         <v>209617</v>
       </c>
       <c r="D292" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E292" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F292">
         <v>60</v>
       </c>
       <c r="G292" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
@@ -7948,22 +7951,22 @@
         <v>207</v>
       </c>
       <c r="B293" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C293">
         <v>220077</v>
       </c>
       <c r="D293" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E293" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F293">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G293" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
@@ -7971,22 +7974,22 @@
         <v>221</v>
       </c>
       <c r="B294" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C294">
         <v>0</v>
       </c>
       <c r="D294" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E294" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F294">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G294" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
@@ -7994,22 +7997,22 @@
         <v>221</v>
       </c>
       <c r="B295" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C295">
         <v>1600</v>
       </c>
       <c r="D295" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E295" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F295">
         <v>60</v>
       </c>
       <c r="G295" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
@@ -8017,22 +8020,22 @@
         <v>221</v>
       </c>
       <c r="B296" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C296">
         <v>4426</v>
       </c>
       <c r="D296" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E296" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F296">
         <v>60</v>
       </c>
       <c r="G296" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
@@ -8040,22 +8043,22 @@
         <v>221</v>
       </c>
       <c r="B297" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C297">
         <v>22128</v>
       </c>
       <c r="D297" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E297" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F297">
         <v>0</v>
       </c>
       <c r="G297" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
@@ -8063,22 +8066,22 @@
         <v>221</v>
       </c>
       <c r="B298" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C298">
         <v>28163</v>
       </c>
       <c r="D298" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E298" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F298">
         <v>120</v>
       </c>
       <c r="G298" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
@@ -8086,22 +8089,22 @@
         <v>221</v>
       </c>
       <c r="B299" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C299">
         <v>35003</v>
       </c>
       <c r="D299" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E299" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F299">
         <v>60</v>
       </c>
       <c r="G299" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
@@ -8109,22 +8112,22 @@
         <v>221</v>
       </c>
       <c r="B300" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C300">
         <v>46269</v>
       </c>
       <c r="D300" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E300" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F300">
         <v>60</v>
       </c>
       <c r="G300" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
@@ -8132,22 +8135,22 @@
         <v>221</v>
       </c>
       <c r="B301" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C301">
         <v>70006</v>
       </c>
       <c r="D301" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E301" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F301">
         <v>0</v>
       </c>
       <c r="G301" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
@@ -8155,22 +8158,22 @@
         <v>221</v>
       </c>
       <c r="B302" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C302">
         <v>84716</v>
       </c>
       <c r="D302" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E302" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F302">
         <v>120</v>
       </c>
       <c r="G302" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
@@ -8178,22 +8181,22 @@
         <v>221</v>
       </c>
       <c r="B303" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C303">
         <v>113056</v>
       </c>
       <c r="D303" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E303" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F303">
         <v>60</v>
       </c>
       <c r="G303" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
@@ -8201,19 +8204,19 @@
         <v>221</v>
       </c>
       <c r="B304" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C304">
         <v>126558</v>
       </c>
       <c r="D304" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E304" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F304">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G304" s="2">
         <v>0.81944444444444442</v>
@@ -8224,22 +8227,22 @@
         <v>222</v>
       </c>
       <c r="B305" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C305">
         <v>0</v>
       </c>
       <c r="D305" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E305" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F305">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G305" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
@@ -8247,22 +8250,22 @@
         <v>222</v>
       </c>
       <c r="B306" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C306">
         <v>1600</v>
       </c>
       <c r="D306" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E306" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F306">
         <v>60</v>
       </c>
       <c r="G306" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
@@ -8270,22 +8273,22 @@
         <v>222</v>
       </c>
       <c r="B307" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C307">
         <v>4426</v>
       </c>
       <c r="D307" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E307" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F307">
         <v>60</v>
       </c>
       <c r="G307" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
@@ -8293,22 +8296,22 @@
         <v>222</v>
       </c>
       <c r="B308" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C308">
         <v>22128</v>
       </c>
       <c r="D308" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E308" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F308">
         <v>0</v>
       </c>
       <c r="G308" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
@@ -8316,22 +8319,22 @@
         <v>222</v>
       </c>
       <c r="B309" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C309">
         <v>28163</v>
       </c>
       <c r="D309" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E309" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F309">
         <v>120</v>
       </c>
       <c r="G309" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
@@ -8339,22 +8342,22 @@
         <v>222</v>
       </c>
       <c r="B310" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C310">
         <v>35003</v>
       </c>
       <c r="D310" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E310" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F310">
         <v>60</v>
       </c>
       <c r="G310" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
@@ -8362,22 +8365,22 @@
         <v>222</v>
       </c>
       <c r="B311" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C311">
         <v>46269</v>
       </c>
       <c r="D311" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E311" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F311">
         <v>60</v>
       </c>
       <c r="G311" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
@@ -8385,22 +8388,22 @@
         <v>222</v>
       </c>
       <c r="B312" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C312">
         <v>70006</v>
       </c>
       <c r="D312" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E312" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F312">
         <v>0</v>
       </c>
       <c r="G312" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
@@ -8408,22 +8411,22 @@
         <v>222</v>
       </c>
       <c r="B313" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C313">
         <v>84716</v>
       </c>
       <c r="D313" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E313" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F313">
         <v>120</v>
       </c>
       <c r="G313" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
@@ -8431,22 +8434,22 @@
         <v>222</v>
       </c>
       <c r="B314" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C314">
         <v>113056</v>
       </c>
       <c r="D314" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E314" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F314">
         <v>60</v>
       </c>
       <c r="G314" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
@@ -8454,22 +8457,22 @@
         <v>222</v>
       </c>
       <c r="B315" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C315">
         <v>126558</v>
       </c>
       <c r="D315" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E315" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F315">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G315" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
@@ -8477,22 +8480,22 @@
         <v>210</v>
       </c>
       <c r="B316" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C316">
         <v>0</v>
       </c>
       <c r="D316" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E316" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F316">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G316" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
@@ -8500,22 +8503,22 @@
         <v>210</v>
       </c>
       <c r="B317" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C317">
         <v>1600</v>
       </c>
       <c r="D317" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E317" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F317">
         <v>60</v>
       </c>
       <c r="G317" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
@@ -8523,22 +8526,22 @@
         <v>210</v>
       </c>
       <c r="B318" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C318">
         <v>4426</v>
       </c>
       <c r="D318" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E318" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F318">
         <v>60</v>
       </c>
       <c r="G318" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
@@ -8546,22 +8549,22 @@
         <v>210</v>
       </c>
       <c r="B319" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C319">
         <v>22128</v>
       </c>
       <c r="D319" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E319" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F319">
         <v>0</v>
       </c>
       <c r="G319" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
@@ -8569,22 +8572,22 @@
         <v>210</v>
       </c>
       <c r="B320" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C320">
         <v>28163</v>
       </c>
       <c r="D320" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E320" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F320">
         <v>120</v>
       </c>
       <c r="G320" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
@@ -8592,22 +8595,22 @@
         <v>210</v>
       </c>
       <c r="B321" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C321">
         <v>35003</v>
       </c>
       <c r="D321" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E321" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F321">
         <v>60</v>
       </c>
       <c r="G321" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
@@ -8615,22 +8618,22 @@
         <v>210</v>
       </c>
       <c r="B322" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C322">
         <v>46269</v>
       </c>
       <c r="D322" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E322" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F322">
         <v>60</v>
       </c>
       <c r="G322" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
@@ -8638,22 +8641,22 @@
         <v>210</v>
       </c>
       <c r="B323" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C323">
         <v>70006</v>
       </c>
       <c r="D323" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E323" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F323">
         <v>0</v>
       </c>
       <c r="G323" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
@@ -8661,22 +8664,22 @@
         <v>210</v>
       </c>
       <c r="B324" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C324">
         <v>84716</v>
       </c>
       <c r="D324" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E324" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F324">
         <v>120</v>
       </c>
       <c r="G324" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
@@ -8684,22 +8687,22 @@
         <v>210</v>
       </c>
       <c r="B325" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C325">
         <v>113056</v>
       </c>
       <c r="D325" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E325" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F325">
         <v>60</v>
       </c>
       <c r="G325" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.3">
@@ -8707,22 +8710,22 @@
         <v>210</v>
       </c>
       <c r="B326" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C326">
         <v>126558</v>
       </c>
       <c r="D326" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E326" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F326">
         <v>120</v>
       </c>
       <c r="G326" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
@@ -8730,22 +8733,22 @@
         <v>210</v>
       </c>
       <c r="B327" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C327">
         <v>144261</v>
       </c>
       <c r="D327" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E327" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F327">
         <v>120</v>
       </c>
       <c r="G327" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
@@ -8753,22 +8756,22 @@
         <v>210</v>
       </c>
       <c r="B328" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C328">
         <v>161336.33499999999</v>
       </c>
       <c r="D328" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E328" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F328">
         <v>120</v>
       </c>
       <c r="G328" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
@@ -8776,22 +8779,22 @@
         <v>210</v>
       </c>
       <c r="B329" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C329">
         <v>161739</v>
       </c>
       <c r="D329" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E329" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F329">
         <v>0</v>
       </c>
       <c r="G329" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
@@ -8799,22 +8802,22 @@
         <v>210</v>
       </c>
       <c r="B330" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C330">
         <v>175418</v>
       </c>
       <c r="D330" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E330" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F330">
         <v>60</v>
       </c>
       <c r="G330" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
@@ -8822,22 +8825,22 @@
         <v>210</v>
       </c>
       <c r="B331" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C331">
         <v>197546</v>
       </c>
       <c r="D331" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E331" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F331">
         <v>60</v>
       </c>
       <c r="G331" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
@@ -8845,22 +8848,22 @@
         <v>210</v>
       </c>
       <c r="B332" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C332">
         <v>209617</v>
       </c>
       <c r="D332" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E332" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F332">
         <v>60</v>
       </c>
       <c r="G332" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
@@ -8868,22 +8871,22 @@
         <v>210</v>
       </c>
       <c r="B333" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C333">
         <v>220077</v>
       </c>
       <c r="D333" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E333" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F333">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G333" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.3">
@@ -8891,22 +8894,22 @@
         <v>223</v>
       </c>
       <c r="B334" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C334">
         <v>0</v>
       </c>
       <c r="D334" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E334" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F334">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G334" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
@@ -8914,22 +8917,22 @@
         <v>223</v>
       </c>
       <c r="B335" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C335">
         <v>1600</v>
       </c>
       <c r="D335" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E335" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F335">
         <v>60</v>
       </c>
       <c r="G335" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
@@ -8937,22 +8940,22 @@
         <v>223</v>
       </c>
       <c r="B336" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C336">
         <v>4426</v>
       </c>
       <c r="D336" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E336" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F336">
         <v>60</v>
       </c>
       <c r="G336" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
@@ -8960,22 +8963,22 @@
         <v>223</v>
       </c>
       <c r="B337" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C337">
         <v>22128</v>
       </c>
       <c r="D337" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E337" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F337">
         <v>0</v>
       </c>
       <c r="G337" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
@@ -8983,22 +8986,22 @@
         <v>223</v>
       </c>
       <c r="B338" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C338">
         <v>28163</v>
       </c>
       <c r="D338" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E338" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F338">
         <v>120</v>
       </c>
       <c r="G338" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
@@ -9006,22 +9009,22 @@
         <v>223</v>
       </c>
       <c r="B339" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C339">
         <v>35003</v>
       </c>
       <c r="D339" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E339" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F339">
         <v>60</v>
       </c>
       <c r="G339" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
@@ -9029,22 +9032,22 @@
         <v>223</v>
       </c>
       <c r="B340" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C340">
         <v>46269</v>
       </c>
       <c r="D340" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E340" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F340">
         <v>60</v>
       </c>
       <c r="G340" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
@@ -9052,22 +9055,22 @@
         <v>223</v>
       </c>
       <c r="B341" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C341">
         <v>70006</v>
       </c>
       <c r="D341" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E341" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F341">
         <v>0</v>
       </c>
       <c r="G341" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
@@ -9075,19 +9078,19 @@
         <v>223</v>
       </c>
       <c r="B342" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C342">
         <v>84716</v>
       </c>
       <c r="D342" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E342" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F342">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G342" s="2">
         <v>0.93125000000000002</v>

--- a/rawdata/Timetable.xlsx
+++ b/rawdata/Timetable.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holly\Desktop\rail_simulator\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B513CC-D632-4CD0-8533-91709DD4091E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA0A2E4-FB3F-40F4-9443-5202B0F49E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timetable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="277">
   <si>
     <t>ID</t>
   </si>
@@ -101,9 +114,6 @@
   </si>
   <si>
     <t>Start</t>
-  </si>
-  <si>
-    <t>O</t>
   </si>
   <si>
     <t>End</t>
@@ -860,7 +870,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,13 +886,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -912,12 +946,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,13 +1261,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="F343" sqref="F343"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:G203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1250,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1276,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1299,7 +1338,7 @@
         <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1322,7 +1361,7 @@
         <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1345,7 +1384,7 @@
         <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1362,13 +1401,13 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1391,7 +1430,7 @@
         <v>120</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1414,7 +1453,7 @@
         <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1437,7 +1476,7 @@
         <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1460,7 +1499,7 @@
         <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1483,7 +1522,7 @@
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1500,13 +1539,13 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1529,7 +1568,7 @@
         <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1552,7 +1591,7 @@
         <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1575,7 +1614,7 @@
         <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1592,13 +1631,13 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1621,7 +1660,7 @@
         <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1644,7 +1683,7 @@
         <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1661,13 +1700,13 @@
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1690,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1713,7 +1752,7 @@
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1736,7 +1775,7 @@
         <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1759,7 +1798,7 @@
         <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1776,13 +1815,13 @@
         <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1805,7 +1844,7 @@
         <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1828,7 +1867,7 @@
         <v>120</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1851,7 +1890,7 @@
         <v>120</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1874,7 +1913,7 @@
         <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1897,7 +1936,7 @@
         <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1914,13 +1953,13 @@
         <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1943,7 +1982,7 @@
         <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1966,7 +2005,7 @@
         <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1989,7 +2028,7 @@
         <v>120</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2006,13 +2045,13 @@
         <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2035,7 +2074,7 @@
         <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2058,7 +2097,7 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2075,13 +2114,13 @@
         <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2104,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2127,7 +2166,7 @@
         <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2150,7 +2189,7 @@
         <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2173,7 +2212,7 @@
         <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2190,13 +2229,13 @@
         <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2219,7 +2258,7 @@
         <v>120</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2242,7 +2281,7 @@
         <v>120</v>
       </c>
       <c r="G44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2265,7 +2304,7 @@
         <v>120</v>
       </c>
       <c r="G45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2288,7 +2327,7 @@
         <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2311,7 +2350,7 @@
         <v>90</v>
       </c>
       <c r="G47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2328,13 +2367,13 @@
         <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2357,7 +2396,7 @@
         <v>60</v>
       </c>
       <c r="G49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2380,7 +2419,7 @@
         <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2403,7 +2442,7 @@
         <v>120</v>
       </c>
       <c r="G51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2420,13 +2459,13 @@
         <v>24</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2449,7 +2488,7 @@
         <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2472,7 +2511,7 @@
         <v>60</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2489,13 +2528,13 @@
         <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2518,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2541,7 +2580,7 @@
         <v>60</v>
       </c>
       <c r="G57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2564,7 +2603,7 @@
         <v>60</v>
       </c>
       <c r="G58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2587,7 +2626,7 @@
         <v>60</v>
       </c>
       <c r="G59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2604,13 +2643,13 @@
         <v>24</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2633,7 +2672,7 @@
         <v>120</v>
       </c>
       <c r="G61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2656,7 +2695,7 @@
         <v>120</v>
       </c>
       <c r="G62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2679,7 +2718,7 @@
         <v>120</v>
       </c>
       <c r="G63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2702,7 +2741,7 @@
         <v>60</v>
       </c>
       <c r="G64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2725,7 +2764,7 @@
         <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2742,13 +2781,13 @@
         <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2771,7 +2810,7 @@
         <v>60</v>
       </c>
       <c r="G67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2794,7 +2833,7 @@
         <v>60</v>
       </c>
       <c r="G68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2817,7 +2856,7 @@
         <v>120</v>
       </c>
       <c r="G69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2834,13 +2873,13 @@
         <v>24</v>
       </c>
       <c r="E70" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2863,7 +2902,7 @@
         <v>60</v>
       </c>
       <c r="G71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2886,7 +2925,7 @@
         <v>60</v>
       </c>
       <c r="G72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2903,13 +2942,13 @@
         <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2932,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2955,7 +2994,7 @@
         <v>60</v>
       </c>
       <c r="G75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2978,7 +3017,7 @@
         <v>60</v>
       </c>
       <c r="G76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -3001,7 +3040,7 @@
         <v>60</v>
       </c>
       <c r="G77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3018,13 +3057,13 @@
         <v>24</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -3047,7 +3086,7 @@
         <v>120</v>
       </c>
       <c r="G79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3070,7 +3109,7 @@
         <v>120</v>
       </c>
       <c r="G80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3093,7 +3132,7 @@
         <v>120</v>
       </c>
       <c r="G81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -3116,7 +3155,7 @@
         <v>60</v>
       </c>
       <c r="G82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3139,7 +3178,7 @@
         <v>90</v>
       </c>
       <c r="G83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -3156,13 +3195,13 @@
         <v>24</v>
       </c>
       <c r="E84" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -3185,7 +3224,7 @@
         <v>60</v>
       </c>
       <c r="G85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3208,7 +3247,7 @@
         <v>60</v>
       </c>
       <c r="G86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -3231,7 +3270,7 @@
         <v>120</v>
       </c>
       <c r="G87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -3248,13 +3287,13 @@
         <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -3277,7 +3316,7 @@
         <v>60</v>
       </c>
       <c r="G89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -3300,7 +3339,7 @@
         <v>60</v>
       </c>
       <c r="G90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3317,13 +3356,13 @@
         <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3346,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3369,7 +3408,7 @@
         <v>60</v>
       </c>
       <c r="G93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -3392,7 +3431,7 @@
         <v>60</v>
       </c>
       <c r="G94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -3415,7 +3454,7 @@
         <v>60</v>
       </c>
       <c r="G95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -3432,13 +3471,13 @@
         <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -3461,7 +3500,7 @@
         <v>120</v>
       </c>
       <c r="G97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -3484,7 +3523,7 @@
         <v>120</v>
       </c>
       <c r="G98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -3507,7 +3546,7 @@
         <v>120</v>
       </c>
       <c r="G99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -3530,7 +3569,7 @@
         <v>60</v>
       </c>
       <c r="G100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -3553,7 +3592,7 @@
         <v>90</v>
       </c>
       <c r="G101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -3570,13 +3609,13 @@
         <v>24</v>
       </c>
       <c r="E102" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102" t="s">
-        <v>33</v>
+        <v>60</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0.71458333333333335</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -3599,7 +3638,7 @@
         <v>60</v>
       </c>
       <c r="G103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -3622,7 +3661,7 @@
         <v>60</v>
       </c>
       <c r="G104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -3645,7 +3684,7 @@
         <v>120</v>
       </c>
       <c r="G105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -3662,13 +3701,13 @@
         <v>24</v>
       </c>
       <c r="E106" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -3691,7 +3730,7 @@
         <v>60</v>
       </c>
       <c r="G107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -3714,7 +3753,7 @@
         <v>60</v>
       </c>
       <c r="G108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -3731,13 +3770,13 @@
         <v>24</v>
       </c>
       <c r="E109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -3760,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -3783,7 +3822,7 @@
         <v>60</v>
       </c>
       <c r="G111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -3806,7 +3845,7 @@
         <v>60</v>
       </c>
       <c r="G112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -3829,7 +3868,7 @@
         <v>60</v>
       </c>
       <c r="G113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -3846,13 +3885,13 @@
         <v>24</v>
       </c>
       <c r="E114" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -3875,7 +3914,7 @@
         <v>120</v>
       </c>
       <c r="G115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -3898,7 +3937,7 @@
         <v>120</v>
       </c>
       <c r="G116" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -3921,7 +3960,7 @@
         <v>120</v>
       </c>
       <c r="G117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -3944,7 +3983,7 @@
         <v>60</v>
       </c>
       <c r="G118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -3967,7 +4006,7 @@
         <v>90</v>
       </c>
       <c r="G119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -3984,13 +4023,13 @@
         <v>24</v>
       </c>
       <c r="E120" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120" t="s">
-        <v>33</v>
+        <v>60</v>
+      </c>
+      <c r="G120" s="2">
+        <v>0.80625000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -4013,7 +4052,7 @@
         <v>60</v>
       </c>
       <c r="G121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -4036,7 +4075,7 @@
         <v>60</v>
       </c>
       <c r="G122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -4059,7 +4098,7 @@
         <v>120</v>
       </c>
       <c r="G123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -4076,13 +4115,13 @@
         <v>24</v>
       </c>
       <c r="E124" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -4105,7 +4144,7 @@
         <v>60</v>
       </c>
       <c r="G125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -4128,7 +4167,7 @@
         <v>60</v>
       </c>
       <c r="G126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -4145,13 +4184,13 @@
         <v>24</v>
       </c>
       <c r="E127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -4174,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -4197,7 +4236,7 @@
         <v>60</v>
       </c>
       <c r="G129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -4220,7 +4259,7 @@
         <v>60</v>
       </c>
       <c r="G130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -4243,7 +4282,7 @@
         <v>60</v>
       </c>
       <c r="G131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -4260,13 +4299,13 @@
         <v>24</v>
       </c>
       <c r="E132" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -4289,7 +4328,7 @@
         <v>120</v>
       </c>
       <c r="G133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -4312,7 +4351,7 @@
         <v>120</v>
       </c>
       <c r="G134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -4335,7 +4374,7 @@
         <v>120</v>
       </c>
       <c r="G135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -4358,7 +4397,7 @@
         <v>60</v>
       </c>
       <c r="G136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -4381,7 +4420,7 @@
         <v>90</v>
       </c>
       <c r="G137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -4398,13 +4437,13 @@
         <v>24</v>
       </c>
       <c r="E138" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -4427,7 +4466,7 @@
         <v>60</v>
       </c>
       <c r="G139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -4450,7 +4489,7 @@
         <v>60</v>
       </c>
       <c r="G140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -4473,7 +4512,7 @@
         <v>120</v>
       </c>
       <c r="G141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -4490,13 +4529,13 @@
         <v>24</v>
       </c>
       <c r="E142" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -4519,7 +4558,7 @@
         <v>60</v>
       </c>
       <c r="G143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -4542,7 +4581,7 @@
         <v>60</v>
       </c>
       <c r="G144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -4559,13 +4598,13 @@
         <v>24</v>
       </c>
       <c r="E145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -4588,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -4611,7 +4650,7 @@
         <v>60</v>
       </c>
       <c r="G147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -4634,7 +4673,7 @@
         <v>90</v>
       </c>
       <c r="G148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -4651,13 +4690,13 @@
         <v>24</v>
       </c>
       <c r="E149" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -4680,7 +4719,7 @@
         <v>60</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -4703,7 +4742,7 @@
         <v>60</v>
       </c>
       <c r="G151" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -4726,7 +4765,7 @@
         <v>120</v>
       </c>
       <c r="G152" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -4743,13 +4782,13 @@
         <v>24</v>
       </c>
       <c r="E153" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F153">
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -4772,7 +4811,7 @@
         <v>60</v>
       </c>
       <c r="G154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -4795,7 +4834,7 @@
         <v>60</v>
       </c>
       <c r="G155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -4812,13 +4851,13 @@
         <v>24</v>
       </c>
       <c r="E156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F156">
         <v>600</v>
       </c>
       <c r="G156" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -4841,7 +4880,7 @@
         <v>600</v>
       </c>
       <c r="G157" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -4864,7 +4903,7 @@
         <v>60</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -4887,7 +4926,7 @@
         <v>90</v>
       </c>
       <c r="G159" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -4904,13 +4943,13 @@
         <v>24</v>
       </c>
       <c r="E160" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -4933,7 +4972,7 @@
         <v>60</v>
       </c>
       <c r="G161" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -4956,7 +4995,7 @@
         <v>60</v>
       </c>
       <c r="G162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -4979,7 +5018,7 @@
         <v>120</v>
       </c>
       <c r="G163" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -4996,13 +5035,13 @@
         <v>24</v>
       </c>
       <c r="E164" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F164">
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -5025,7 +5064,7 @@
         <v>60</v>
       </c>
       <c r="G165" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -5048,7 +5087,7 @@
         <v>60</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -5065,13 +5104,13 @@
         <v>24</v>
       </c>
       <c r="E167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -5094,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -5117,7 +5156,7 @@
         <v>60</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -5140,7 +5179,7 @@
         <v>60</v>
       </c>
       <c r="G170" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -5157,13 +5196,13 @@
         <v>24</v>
       </c>
       <c r="E171" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -5186,7 +5225,7 @@
         <v>120</v>
       </c>
       <c r="G172" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -5209,7 +5248,7 @@
         <v>60</v>
       </c>
       <c r="G173" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -5231,8 +5270,8 @@
       <c r="F174">
         <v>60</v>
       </c>
-      <c r="G174" t="s">
-        <v>161</v>
+      <c r="G174" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -5249,13 +5288,13 @@
         <v>24</v>
       </c>
       <c r="E175" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -5277,8 +5316,8 @@
       <c r="F176">
         <v>120</v>
       </c>
-      <c r="G176" t="s">
-        <v>162</v>
+      <c r="G176" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -5301,7 +5340,7 @@
         <v>60</v>
       </c>
       <c r="G177" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -5324,7 +5363,7 @@
         <v>120</v>
       </c>
       <c r="G178" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -5347,7 +5386,7 @@
         <v>120</v>
       </c>
       <c r="G179" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -5370,7 +5409,7 @@
         <v>120</v>
       </c>
       <c r="G180" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -5387,13 +5426,13 @@
         <v>24</v>
       </c>
       <c r="E181" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -5415,8 +5454,8 @@
       <c r="F182">
         <v>60</v>
       </c>
-      <c r="G182" t="s">
-        <v>166</v>
+      <c r="G182" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -5439,7 +5478,7 @@
         <v>60</v>
       </c>
       <c r="G183" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -5462,7 +5501,7 @@
         <v>60</v>
       </c>
       <c r="G184" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -5479,13 +5518,13 @@
         <v>24</v>
       </c>
       <c r="E185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -5508,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -5531,7 +5570,7 @@
         <v>60</v>
       </c>
       <c r="G187" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -5554,7 +5593,7 @@
         <v>60</v>
       </c>
       <c r="G188" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -5571,13 +5610,13 @@
         <v>24</v>
       </c>
       <c r="E189" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -5600,7 +5639,7 @@
         <v>120</v>
       </c>
       <c r="G190" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -5623,7 +5662,7 @@
         <v>60</v>
       </c>
       <c r="G191" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -5646,7 +5685,7 @@
         <v>60</v>
       </c>
       <c r="G192" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -5663,13 +5702,13 @@
         <v>24</v>
       </c>
       <c r="E193" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -5692,7 +5731,7 @@
         <v>120</v>
       </c>
       <c r="G194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -5714,8 +5753,8 @@
       <c r="F195">
         <v>60</v>
       </c>
-      <c r="G195" t="s">
-        <v>175</v>
+      <c r="G195" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -5738,7 +5777,7 @@
         <v>120</v>
       </c>
       <c r="G196" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -5761,7 +5800,7 @@
         <v>120</v>
       </c>
       <c r="G197" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -5784,7 +5823,7 @@
         <v>120</v>
       </c>
       <c r="G198" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -5801,13 +5840,13 @@
         <v>24</v>
       </c>
       <c r="E199" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -5829,8 +5868,8 @@
       <c r="F200">
         <v>60</v>
       </c>
-      <c r="G200" t="s">
-        <v>70</v>
+      <c r="G200" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -5853,7 +5892,7 @@
         <v>60</v>
       </c>
       <c r="G201" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -5876,7 +5915,7 @@
         <v>60</v>
       </c>
       <c r="G202" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -5893,13 +5932,13 @@
         <v>24</v>
       </c>
       <c r="E203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -5922,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -5945,7 +5984,7 @@
         <v>60</v>
       </c>
       <c r="G205" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -5968,7 +6007,7 @@
         <v>60</v>
       </c>
       <c r="G206" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -5985,13 +6024,13 @@
         <v>24</v>
       </c>
       <c r="E207" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -6014,7 +6053,7 @@
         <v>120</v>
       </c>
       <c r="G208" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -6037,7 +6076,7 @@
         <v>60</v>
       </c>
       <c r="G209" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -6060,7 +6099,7 @@
         <v>60</v>
       </c>
       <c r="G210" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -6077,13 +6116,13 @@
         <v>24</v>
       </c>
       <c r="E211" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F211">
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -6106,7 +6145,7 @@
         <v>120</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -6128,8 +6167,8 @@
       <c r="F213">
         <v>60</v>
       </c>
-      <c r="G213" t="s">
-        <v>186</v>
+      <c r="G213" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -6152,7 +6191,7 @@
         <v>120</v>
       </c>
       <c r="G214" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -6175,7 +6214,7 @@
         <v>120</v>
       </c>
       <c r="G215" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -6198,7 +6237,7 @@
         <v>120</v>
       </c>
       <c r="G216" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -6215,13 +6254,13 @@
         <v>24</v>
       </c>
       <c r="E217" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F217">
         <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -6243,8 +6282,8 @@
       <c r="F218">
         <v>60</v>
       </c>
-      <c r="G218" t="s">
-        <v>189</v>
+      <c r="G218" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -6267,7 +6306,7 @@
         <v>60</v>
       </c>
       <c r="G219" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -6290,7 +6329,7 @@
         <v>60</v>
       </c>
       <c r="G220" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -6307,13 +6346,13 @@
         <v>24</v>
       </c>
       <c r="E221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -6336,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -6359,7 +6398,7 @@
         <v>60</v>
       </c>
       <c r="G223" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -6382,7 +6421,7 @@
         <v>60</v>
       </c>
       <c r="G224" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -6399,13 +6438,13 @@
         <v>24</v>
       </c>
       <c r="E225" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F225">
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -6428,7 +6467,7 @@
         <v>120</v>
       </c>
       <c r="G226" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -6451,7 +6490,7 @@
         <v>60</v>
       </c>
       <c r="G227" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -6474,7 +6513,7 @@
         <v>60</v>
       </c>
       <c r="G228" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -6491,13 +6530,13 @@
         <v>24</v>
       </c>
       <c r="E229" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F229">
         <v>0</v>
       </c>
       <c r="G229" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -6520,7 +6559,7 @@
         <v>120</v>
       </c>
       <c r="G230" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -6543,7 +6582,7 @@
         <v>60</v>
       </c>
       <c r="G231" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -6566,7 +6605,7 @@
         <v>120</v>
       </c>
       <c r="G232" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -6589,7 +6628,7 @@
         <v>120</v>
       </c>
       <c r="G233" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -6612,7 +6651,7 @@
         <v>120</v>
       </c>
       <c r="G234" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -6629,13 +6668,13 @@
         <v>24</v>
       </c>
       <c r="E235" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F235">
         <v>0</v>
       </c>
       <c r="G235" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -6658,7 +6697,7 @@
         <v>60</v>
       </c>
       <c r="G236" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -6681,7 +6720,7 @@
         <v>60</v>
       </c>
       <c r="G237" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -6704,7 +6743,7 @@
         <v>60</v>
       </c>
       <c r="G238" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -6721,13 +6760,13 @@
         <v>24</v>
       </c>
       <c r="E239" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F239">
         <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -6750,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="G240" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -6773,7 +6812,7 @@
         <v>60</v>
       </c>
       <c r="G241" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -6796,7 +6835,7 @@
         <v>60</v>
       </c>
       <c r="G242" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -6813,13 +6852,13 @@
         <v>24</v>
       </c>
       <c r="E243" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F243">
         <v>0</v>
       </c>
       <c r="G243" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -6842,7 +6881,7 @@
         <v>120</v>
       </c>
       <c r="G244" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -6865,7 +6904,7 @@
         <v>60</v>
       </c>
       <c r="G245" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -6888,7 +6927,7 @@
         <v>60</v>
       </c>
       <c r="G246" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -6905,13 +6944,13 @@
         <v>24</v>
       </c>
       <c r="E247" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F247">
         <v>0</v>
       </c>
       <c r="G247" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -6934,7 +6973,7 @@
         <v>120</v>
       </c>
       <c r="G248" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -6957,7 +6996,7 @@
         <v>60</v>
       </c>
       <c r="G249" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
@@ -6980,7 +7019,7 @@
         <v>120</v>
       </c>
       <c r="G250" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -7003,7 +7042,7 @@
         <v>120</v>
       </c>
       <c r="G251" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -7026,7 +7065,7 @@
         <v>120</v>
       </c>
       <c r="G252" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -7043,13 +7082,13 @@
         <v>24</v>
       </c>
       <c r="E253" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F253">
         <v>0</v>
       </c>
       <c r="G253" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -7072,7 +7111,7 @@
         <v>60</v>
       </c>
       <c r="G254" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -7095,7 +7134,7 @@
         <v>60</v>
       </c>
       <c r="G255" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -7118,7 +7157,7 @@
         <v>60</v>
       </c>
       <c r="G256" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -7135,13 +7174,13 @@
         <v>24</v>
       </c>
       <c r="E257" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F257">
         <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -7164,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -7187,7 +7226,7 @@
         <v>60</v>
       </c>
       <c r="G259" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -7210,7 +7249,7 @@
         <v>60</v>
       </c>
       <c r="G260" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -7227,13 +7266,13 @@
         <v>24</v>
       </c>
       <c r="E261" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F261">
         <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -7256,7 +7295,7 @@
         <v>120</v>
       </c>
       <c r="G262" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -7279,7 +7318,7 @@
         <v>60</v>
       </c>
       <c r="G263" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -7302,7 +7341,7 @@
         <v>60</v>
       </c>
       <c r="G264" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -7319,13 +7358,13 @@
         <v>24</v>
       </c>
       <c r="E265" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F265">
-        <v>0</v>
-      </c>
-      <c r="G265" t="s">
-        <v>33</v>
+        <v>60</v>
+      </c>
+      <c r="G265" s="2">
+        <v>0.71458333333333335</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -7348,7 +7387,7 @@
         <v>120</v>
       </c>
       <c r="G266" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -7371,7 +7410,7 @@
         <v>60</v>
       </c>
       <c r="G267" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
@@ -7394,7 +7433,7 @@
         <v>120</v>
       </c>
       <c r="G268" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -7417,7 +7456,7 @@
         <v>120</v>
       </c>
       <c r="G269" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -7440,7 +7479,7 @@
         <v>120</v>
       </c>
       <c r="G270" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -7457,13 +7496,13 @@
         <v>24</v>
       </c>
       <c r="E271" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F271">
         <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -7486,7 +7525,7 @@
         <v>60</v>
       </c>
       <c r="G272" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -7509,7 +7548,7 @@
         <v>60</v>
       </c>
       <c r="G273" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -7532,7 +7571,7 @@
         <v>60</v>
       </c>
       <c r="G274" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -7549,13 +7588,13 @@
         <v>24</v>
       </c>
       <c r="E275" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F275">
         <v>0</v>
       </c>
       <c r="G275" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -7578,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="G276" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -7601,7 +7640,7 @@
         <v>60</v>
       </c>
       <c r="G277" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -7624,7 +7663,7 @@
         <v>60</v>
       </c>
       <c r="G278" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
@@ -7641,13 +7680,13 @@
         <v>24</v>
       </c>
       <c r="E279" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F279">
         <v>0</v>
       </c>
       <c r="G279" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
@@ -7670,7 +7709,7 @@
         <v>120</v>
       </c>
       <c r="G280" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
@@ -7693,7 +7732,7 @@
         <v>60</v>
       </c>
       <c r="G281" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -7716,7 +7755,7 @@
         <v>60</v>
       </c>
       <c r="G282" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -7733,13 +7772,13 @@
         <v>24</v>
       </c>
       <c r="E283" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F283">
         <v>0</v>
       </c>
       <c r="G283" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -7762,7 +7801,7 @@
         <v>120</v>
       </c>
       <c r="G284" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
@@ -7785,7 +7824,7 @@
         <v>60</v>
       </c>
       <c r="G285" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
@@ -7808,7 +7847,7 @@
         <v>120</v>
       </c>
       <c r="G286" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
@@ -7831,7 +7870,7 @@
         <v>120</v>
       </c>
       <c r="G287" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
@@ -7854,7 +7893,7 @@
         <v>120</v>
       </c>
       <c r="G288" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
@@ -7871,7 +7910,7 @@
         <v>24</v>
       </c>
       <c r="E289" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -7897,7 +7936,7 @@
         <v>60</v>
       </c>
       <c r="G290" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
@@ -7920,7 +7959,7 @@
         <v>60</v>
       </c>
       <c r="G291" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
@@ -7943,7 +7982,7 @@
         <v>60</v>
       </c>
       <c r="G292" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
@@ -7960,13 +7999,13 @@
         <v>24</v>
       </c>
       <c r="E293" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F293">
         <v>0</v>
       </c>
       <c r="G293" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
@@ -7989,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="G294" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
@@ -8012,7 +8051,7 @@
         <v>60</v>
       </c>
       <c r="G295" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
@@ -8035,7 +8074,7 @@
         <v>60</v>
       </c>
       <c r="G296" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
@@ -8052,13 +8091,13 @@
         <v>24</v>
       </c>
       <c r="E297" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F297">
         <v>0</v>
       </c>
       <c r="G297" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
@@ -8081,7 +8120,7 @@
         <v>120</v>
       </c>
       <c r="G298" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
@@ -8104,7 +8143,7 @@
         <v>60</v>
       </c>
       <c r="G299" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
@@ -8127,7 +8166,7 @@
         <v>60</v>
       </c>
       <c r="G300" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
@@ -8144,13 +8183,13 @@
         <v>24</v>
       </c>
       <c r="E301" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F301">
         <v>0</v>
       </c>
       <c r="G301" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
@@ -8173,7 +8212,7 @@
         <v>120</v>
       </c>
       <c r="G302" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
@@ -8196,7 +8235,7 @@
         <v>60</v>
       </c>
       <c r="G303" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
@@ -8213,7 +8252,7 @@
         <v>24</v>
       </c>
       <c r="E304" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -8242,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="G305" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
@@ -8265,7 +8304,7 @@
         <v>60</v>
       </c>
       <c r="G306" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
@@ -8288,7 +8327,7 @@
         <v>60</v>
       </c>
       <c r="G307" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
@@ -8305,13 +8344,13 @@
         <v>24</v>
       </c>
       <c r="E308" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F308">
         <v>0</v>
       </c>
       <c r="G308" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
@@ -8334,7 +8373,7 @@
         <v>120</v>
       </c>
       <c r="G309" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
@@ -8357,7 +8396,7 @@
         <v>60</v>
       </c>
       <c r="G310" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
@@ -8380,7 +8419,7 @@
         <v>60</v>
       </c>
       <c r="G311" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
@@ -8397,13 +8436,13 @@
         <v>24</v>
       </c>
       <c r="E312" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F312">
-        <v>0</v>
-      </c>
-      <c r="G312" t="s">
-        <v>33</v>
+        <v>60</v>
+      </c>
+      <c r="G312" s="2">
+        <v>0.80625000000000002</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
@@ -8426,7 +8465,7 @@
         <v>120</v>
       </c>
       <c r="G313" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
@@ -8449,7 +8488,7 @@
         <v>60</v>
       </c>
       <c r="G314" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
@@ -8466,13 +8505,13 @@
         <v>24</v>
       </c>
       <c r="E315" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F315">
         <v>0</v>
       </c>
       <c r="G315" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
@@ -8495,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="G316" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
@@ -8518,7 +8557,7 @@
         <v>60</v>
       </c>
       <c r="G317" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
@@ -8541,7 +8580,7 @@
         <v>60</v>
       </c>
       <c r="G318" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
@@ -8558,13 +8597,13 @@
         <v>24</v>
       </c>
       <c r="E319" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F319">
         <v>0</v>
       </c>
       <c r="G319" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
@@ -8587,7 +8626,7 @@
         <v>120</v>
       </c>
       <c r="G320" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
@@ -8610,7 +8649,7 @@
         <v>60</v>
       </c>
       <c r="G321" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
@@ -8633,7 +8672,7 @@
         <v>60</v>
       </c>
       <c r="G322" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
@@ -8650,13 +8689,13 @@
         <v>24</v>
       </c>
       <c r="E323" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F323">
         <v>0</v>
       </c>
       <c r="G323" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
@@ -8679,7 +8718,7 @@
         <v>120</v>
       </c>
       <c r="G324" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
@@ -8702,7 +8741,7 @@
         <v>60</v>
       </c>
       <c r="G325" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.3">
@@ -8725,7 +8764,7 @@
         <v>120</v>
       </c>
       <c r="G326" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
@@ -8748,7 +8787,7 @@
         <v>120</v>
       </c>
       <c r="G327" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
@@ -8771,7 +8810,7 @@
         <v>120</v>
       </c>
       <c r="G328" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
@@ -8788,13 +8827,13 @@
         <v>24</v>
       </c>
       <c r="E329" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F329">
         <v>0</v>
       </c>
       <c r="G329" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
@@ -8817,7 +8856,7 @@
         <v>60</v>
       </c>
       <c r="G330" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
@@ -8840,7 +8879,7 @@
         <v>60</v>
       </c>
       <c r="G331" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
@@ -8863,7 +8902,7 @@
         <v>60</v>
       </c>
       <c r="G332" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
@@ -8880,13 +8919,13 @@
         <v>24</v>
       </c>
       <c r="E333" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F333">
         <v>0</v>
       </c>
       <c r="G333" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.3">
@@ -8909,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="G334" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
@@ -8932,7 +8971,7 @@
         <v>60</v>
       </c>
       <c r="G335" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
@@ -8955,7 +8994,7 @@
         <v>60</v>
       </c>
       <c r="G336" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
@@ -8972,13 +9011,13 @@
         <v>24</v>
       </c>
       <c r="E337" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F337">
         <v>0</v>
       </c>
       <c r="G337" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
@@ -9001,7 +9040,7 @@
         <v>120</v>
       </c>
       <c r="G338" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
@@ -9024,7 +9063,7 @@
         <v>60</v>
       </c>
       <c r="G339" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
@@ -9047,7 +9086,7 @@
         <v>60</v>
       </c>
       <c r="G340" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
@@ -9064,13 +9103,13 @@
         <v>24</v>
       </c>
       <c r="E341" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F341">
         <v>0</v>
       </c>
       <c r="G341" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
@@ -9087,7 +9126,7 @@
         <v>24</v>
       </c>
       <c r="E342" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -9097,6 +9136,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>